--- a/LW_SAPR/parametres.xlsx
+++ b/LW_SAPR/parametres.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kurbatova\source\LW2020\lw_2021\LW_SAPR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kurbatova\source\LW2021\LW_SAPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A17A6CD-E6F5-4EFF-B52C-7DEBCA5E5435}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1375779E-6225-454E-9346-E716B2A5FCBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7848" yWindow="2292" windowWidth="12984" windowHeight="10668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,13 +30,13 @@
     <t>мм</t>
   </si>
   <si>
-    <t>bottom_h</t>
+    <t>diametr</t>
   </si>
   <si>
-    <t>bottom_w</t>
+    <t>length</t>
   </si>
   <si>
-    <t>height</t>
+    <t>weidht</t>
   </si>
 </sst>
 </file>
@@ -367,10 +367,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -378,7 +378,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>120</v>
@@ -389,7 +389,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>120</v>
